--- a/Data/Data_Raw/Country codes & metadata/metadata_new.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florenciaruiz/Library/Mobile Documents/com~apple~CloudDocs/World Bank/Briefs/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BDA50D-AC31-4E93-A3E2-175285D28487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF528C8-F51A-1E40-AAA1-B1A4BB87D95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10200" yWindow="760" windowWidth="17680" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,13 +54,21 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Yanel Llohis:
-Cambie hoy, hay que agregar a la metadata
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Cambie hoy, hay que agregar a la metadata
 </t>
         </r>
       </text>
@@ -70,48 +78,56 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Yanel Llohis:
-Dejar fuente ILO que es modelled estimates</t>
+          <t xml:space="preserve">Yanel Llohis:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dejar fuente ILO que es modelled estimates</t>
         </r>
       </text>
     </comment>
     <comment ref="AC59" authorId="1" shapeId="0" xr:uid="{02C10787-70D9-4BDE-8DAF-B826D590BD0E}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     La pegue tal cual estaba pero inviable me parece lo larga que es
 </t>
       </text>
     </comment>
     <comment ref="AD59" authorId="2" shapeId="0" xr:uid="{85D97F8B-D759-4707-9A99-51284B42AAEE}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     La pegue tal cual estaba pero inviable me parece lo larga que es
 </t>
       </text>
     </comment>
     <comment ref="B66" authorId="3" shapeId="0" xr:uid="{453D3601-9C67-4343-9FD2-4AFDA4A5C241}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Sume de WB education, editar metadata
 </t>
       </text>
     </comment>
     <comment ref="B67" authorId="4" shapeId="0" xr:uid="{28F9FD80-94E7-4455-AFED-5BFAD723A003}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Cambie, el de WDI era over age pero este aclara 2 years over como el que teniamos y es consistente con el de lower secondary</t>
       </text>
     </comment>
@@ -120,13 +136,21 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Yanel Llohis:
-Este queda con la fuente de ILO</t>
+          <t xml:space="preserve">Yanel Llohis:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Este queda con la fuente de ILO</t>
         </r>
       </text>
     </comment>
@@ -770,30 +794,12 @@
     <t>ch_ontrack</t>
   </si>
   <si>
-    <t>Children who are developmentally on track (%), ages 3-5</t>
-  </si>
-  <si>
-    <t>Percentage of children (aged 36-59 months) developmentally on track in at least 3 of the 4 following domains: literacy-numeracy, physical, social-emotional and learning</t>
-  </si>
-  <si>
-    <t>ECD_CHLD_36_59M_LMPSL</t>
-  </si>
-  <si>
     <t>https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=SDG_PROG_ASSESSMENT&amp;dq=.C040201&amp;ver=1.0&amp;startPeriod=2018&amp;endPeriod=2022</t>
   </si>
   <si>
-    <t>Proportion of children ages 36-59 months who are developmentally on track in health, learning and psychosocial well-being, by sex (%)</t>
-  </si>
-  <si>
-    <t>Percentage of children ages 3-5 who are developmentally on track in health, learning and psychosocial well-being.</t>
-  </si>
-  <si>
     <t>2022, March</t>
   </si>
   <si>
-    <t>% of children 36-59 months</t>
-  </si>
-  <si>
     <t>lastnm_birth_reg</t>
   </si>
   <si>
@@ -1289,22 +1295,10 @@
     <t>no WDI (está SH.IMM.HEPB, pero es sobre infantes de 1 año, parece diferente al de UNICEF)</t>
   </si>
   <si>
-    <t>HIV_inc_1019</t>
-  </si>
-  <si>
-    <t>HIV incidence rate (per 1,000 uninfected), ages 10-19</t>
-  </si>
-  <si>
     <t>Estimated incidence rate (new HIV infection per 1,000 uninfected population)</t>
   </si>
   <si>
-    <t>HVA_EPI_INF_RT_10_19</t>
-  </si>
-  <si>
     <t>Numerator: Estimated number of new HIV infections. Denominator: Total number of uninfected population</t>
-  </si>
-  <si>
-    <t>Estimated number of new HIV infection per 1,000 uninfected population among individuals aged 10-19. This indicator is calculated by dividing the estimated number of new HIV infections among this age group by the total number of uninfected individuals aged 10-19 and multiplying the result by 1,000.</t>
   </si>
   <si>
     <t>per 1,000 uninfected</t>
@@ -3509,6 +3503,36 @@
   </si>
   <si>
     <t>per_sa_allsa_cov_pop_tot</t>
+  </si>
+  <si>
+    <t>HIV_inc_1519</t>
+  </si>
+  <si>
+    <t>HIV incidence rate (per 1,000 uninfected), ages 15-19</t>
+  </si>
+  <si>
+    <t>HVA_EPI_INF_RT_15_19</t>
+  </si>
+  <si>
+    <t>Estimated number of new HIV infection per 1,000 uninfected population among individuals aged 15-19. This indicator is calculated by dividing the estimated number of new HIV infections among this age group by the total number of uninfected individuals aged 15-19 and multiplying the result by 1,000.</t>
+  </si>
+  <si>
+    <t>ECD_CHLD_LMPSL</t>
+  </si>
+  <si>
+    <t>Percentage of children (aged 24-59 months) developmentally on track in at least 3 of the 4 following domains: literacy-numeracy, physical, social-emotional and learning</t>
+  </si>
+  <si>
+    <t>Children who are developmentally on track (%), ages 2-5</t>
+  </si>
+  <si>
+    <t>Proportion of children ages 24-59 months who are developmentally on track in health, learning and psychosocial well-being, by sex (%)</t>
+  </si>
+  <si>
+    <t>Percentage of children ages 2-5 who are developmentally on track in health, learning and psychosocial well-being.</t>
+  </si>
+  <si>
+    <t>% of children 24-59 months</t>
   </si>
 </sst>
 </file>
@@ -3966,7 +3990,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4313,29 +4337,29 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BB139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="Z4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="5" width="51.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="5" width="51.33203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="16" width="9.140625" customWidth="1"/>
+    <col min="7" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="16" width="9.1640625" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="27" width="9.140625" customWidth="1"/>
-    <col min="28" max="28" width="34.7109375" customWidth="1"/>
-    <col min="29" max="29" width="25.140625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="39.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" customWidth="1"/>
+    <col min="19" max="27" width="9.1640625" customWidth="1"/>
+    <col min="28" max="28" width="34.6640625" customWidth="1"/>
+    <col min="29" max="29" width="25.1640625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4422,7 +4446,7 @@
       </c>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>35</v>
       </c>
@@ -4498,7 +4522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>48</v>
       </c>
@@ -4574,7 +4598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>59</v>
       </c>
@@ -4646,7 +4670,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>71</v>
       </c>
@@ -4718,7 +4742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>80</v>
       </c>
@@ -4794,7 +4818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
         <v>89</v>
       </c>
@@ -4870,7 +4894,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
         <v>99</v>
       </c>
@@ -4946,7 +4970,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
         <v>108</v>
       </c>
@@ -5023,7 +5047,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
         <v>121</v>
       </c>
@@ -5097,7 +5121,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
         <v>130</v>
       </c>
@@ -5178,7 +5202,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>143</v>
       </c>
@@ -5246,7 +5270,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="72" t="s">
         <v>150</v>
       </c>
@@ -5314,7 +5338,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="72" t="s">
         <v>157</v>
       </c>
@@ -5382,7 +5406,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="s">
         <v>163</v>
       </c>
@@ -5458,7 +5482,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>171</v>
       </c>
@@ -5535,7 +5559,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A17" s="55" t="s">
         <v>181</v>
       </c>
@@ -5612,7 +5636,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A18" s="55" t="s">
         <v>188</v>
       </c>
@@ -5689,7 +5713,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A19" s="55" t="s">
         <v>196</v>
       </c>
@@ -5766,7 +5790,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>203</v>
       </c>
@@ -5776,29 +5800,29 @@
         <v/>
       </c>
       <c r="D20" s="55" t="s">
-        <v>204</v>
+        <v>1113</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>205</v>
+        <v>1112</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>206</v>
+        <v>1111</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>134</v>
       </c>
       <c r="H20" s="56" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I20" s="55"/>
       <c r="J20" s="55" t="s">
-        <v>208</v>
+        <v>1114</v>
       </c>
       <c r="K20" s="55" t="s">
-        <v>209</v>
+        <v>1115</v>
       </c>
       <c r="L20" s="55" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M20" s="55" t="s">
         <v>139</v>
@@ -5810,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="55" t="s">
-        <v>211</v>
+        <v>1116</v>
       </c>
       <c r="Q20" s="55"/>
       <c r="R20" s="55">
@@ -5836,43 +5860,43 @@
       </c>
       <c r="AA20" s="55"/>
       <c r="AB20" s="55" t="s">
-        <v>204</v>
+        <v>1113</v>
       </c>
       <c r="AC20" s="55"/>
       <c r="AD20" s="55" t="s">
-        <v>209</v>
+        <v>1115</v>
       </c>
     </row>
-    <row r="21" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21" s="55" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="55" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>39</v>
       </c>
       <c r="H21" s="56" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I21" s="55"/>
       <c r="J21" s="55" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L21" s="55" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M21" s="55" t="s">
         <v>139</v>
@@ -5884,7 +5908,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="55" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q21" s="55" t="s">
         <v>47</v>
@@ -5912,27 +5936,27 @@
       </c>
       <c r="AA21" s="55"/>
       <c r="AB21" s="55" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AC21" s="55"/>
       <c r="AD21" s="55" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22" s="55" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>28</v>
@@ -5942,10 +5966,10 @@
       </c>
       <c r="I22" s="55"/>
       <c r="J22" s="55" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K22" s="55" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L22" s="55"/>
       <c r="M22" s="55" t="s">
@@ -5980,27 +6004,27 @@
       </c>
       <c r="AA22" s="55"/>
       <c r="AB22" s="55" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AC22" s="55"/>
       <c r="AD22" s="55" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A23" s="72" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B23" s="72"/>
       <c r="C23" s="72"/>
       <c r="D23" s="55" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F23" s="72" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>28</v>
@@ -6010,10 +6034,10 @@
       </c>
       <c r="I23" s="55"/>
       <c r="J23" s="55" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K23" s="55" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55" t="s">
@@ -6048,27 +6072,27 @@
       </c>
       <c r="AA23" s="72"/>
       <c r="AB23" s="55" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AC23" s="72"/>
       <c r="AD23" s="55" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24" s="72" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B24" s="72"/>
       <c r="C24" s="72"/>
       <c r="D24" s="55" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F24" s="72" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>28</v>
@@ -6078,10 +6102,10 @@
       </c>
       <c r="I24" s="55"/>
       <c r="J24" s="55" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K24" s="55" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L24" s="55"/>
       <c r="M24" s="55" t="s">
@@ -6116,27 +6140,27 @@
       </c>
       <c r="AA24" s="72"/>
       <c r="AB24" s="55" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AC24" s="72"/>
       <c r="AD24" s="55" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A25" s="72" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B25" s="72"/>
       <c r="C25" s="72"/>
       <c r="D25" s="55" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F25" s="72" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>28</v>
@@ -6146,10 +6170,10 @@
       </c>
       <c r="I25" s="55"/>
       <c r="J25" s="55" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K25" s="55" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="55" t="s">
@@ -6184,27 +6208,27 @@
       </c>
       <c r="AA25" s="72"/>
       <c r="AB25" s="55" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AC25" s="72"/>
       <c r="AD25" s="55" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" s="55" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="55" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>28</v>
@@ -6214,10 +6238,10 @@
       </c>
       <c r="I26" s="55"/>
       <c r="J26" s="55" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K26" s="55" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="55" t="s">
@@ -6252,43 +6276,43 @@
       </c>
       <c r="AA26" s="55"/>
       <c r="AB26" s="55" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AC26" s="55"/>
       <c r="AD26" s="55" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27" s="55" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="56" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I27" s="55"/>
       <c r="J27" s="55" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K27" s="55" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L27" s="55" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M27" s="55" t="s">
         <v>127</v>
@@ -6298,7 +6322,7 @@
       </c>
       <c r="O27" s="55"/>
       <c r="P27" s="55" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q27" s="55" t="s">
         <v>87</v>
@@ -6324,43 +6348,43 @@
       </c>
       <c r="AA27" s="55"/>
       <c r="AB27" s="55" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AC27" s="55"/>
       <c r="AD27" s="55" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>39</v>
       </c>
       <c r="H28" s="56" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I28" s="55"/>
       <c r="J28" s="55" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K28" s="55" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L28" s="55" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M28" s="55" t="s">
         <v>30</v>
@@ -6370,7 +6394,7 @@
       </c>
       <c r="O28" s="55"/>
       <c r="P28" s="55" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="55" t="s">
         <v>87</v>
@@ -6396,32 +6420,32 @@
       </c>
       <c r="AA28" s="55"/>
       <c r="AB28" s="55" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AC28" s="55"/>
       <c r="AD28" s="55" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C29" s="78" t="str">
         <f>HYPERLINK(IF(AC29="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B29)))</f>
         <v>https://databank.worldbank.org/source/world-development-indicators?Series=SH.FPL.SATM.ZS</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E29" s="79" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>39</v>
@@ -6431,7 +6455,7 @@
       </c>
       <c r="I29" s="67"/>
       <c r="J29" s="67" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K29" s="80"/>
       <c r="L29" s="67" t="s">
@@ -6445,7 +6469,7 @@
       </c>
       <c r="O29" s="67"/>
       <c r="P29" s="67" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q29" s="67"/>
       <c r="R29" s="67"/>
@@ -6470,21 +6494,21 @@
         <v>70</v>
       </c>
       <c r="AA29" s="67" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AB29" s="67" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AC29" s="55" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AD29" s="55" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="30" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A30" s="55" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="56" t="str">
@@ -6492,13 +6516,13 @@
         <v/>
       </c>
       <c r="D30" s="55" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E30" s="75" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>134</v>
@@ -6508,13 +6532,13 @@
       </c>
       <c r="I30" s="55"/>
       <c r="J30" s="55" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K30" s="55" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L30" s="55" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M30" s="55" t="s">
         <v>139</v>
@@ -6526,7 +6550,7 @@
         <v>3</v>
       </c>
       <c r="P30" s="55" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q30" s="55"/>
       <c r="R30" s="55">
@@ -6556,16 +6580,16 @@
       </c>
       <c r="AA30" s="55"/>
       <c r="AB30" s="55" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AC30" s="55"/>
       <c r="AD30" s="55" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A31" s="55" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B31" s="55"/>
       <c r="C31" s="56" t="str">
@@ -6573,13 +6597,13 @@
         <v/>
       </c>
       <c r="D31" s="55" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E31" s="75" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>134</v>
@@ -6588,16 +6612,16 @@
         <v>135</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J31" s="55" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K31" s="55" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L31" s="55" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M31" s="55" t="s">
         <v>139</v>
@@ -6607,7 +6631,7 @@
       </c>
       <c r="O31" s="55"/>
       <c r="P31" s="55" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q31" s="55"/>
       <c r="R31" s="55"/>
@@ -6619,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="V31" s="55" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W31" s="58" t="b">
         <v>1</v>
@@ -6635,45 +6659,45 @@
       </c>
       <c r="AA31" s="55"/>
       <c r="AB31" s="55" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AC31" s="55"/>
       <c r="AD31" s="55" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="67" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="32" spans="1:54" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
-        <v>289</v>
-      </c>
-      <c r="B32" s="81" t="s">
-        <v>290</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>292</v>
-      </c>
       <c r="E32" s="79" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F32" s="67" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>39</v>
       </c>
       <c r="H32" s="78" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I32" s="67"/>
       <c r="J32" s="67" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K32" s="67"/>
       <c r="L32" s="82" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M32" s="67" t="s">
         <v>139</v>
@@ -6685,7 +6709,7 @@
         <v>13</v>
       </c>
       <c r="P32" s="67" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q32" s="67"/>
       <c r="R32" s="67">
@@ -6699,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="V32" s="55" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W32" s="58" t="b">
         <v>1</v>
@@ -6712,16 +6736,16 @@
         <v>70</v>
       </c>
       <c r="AA32" s="67" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AB32" s="67" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AC32" s="67" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AD32" s="67" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
@@ -6748,20 +6772,20 @@
       <c r="BA32" s="5"/>
       <c r="BB32" s="5"/>
     </row>
-    <row r="33" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A33" s="55" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>93</v>
@@ -6771,7 +6795,7 @@
       </c>
       <c r="I33" s="55"/>
       <c r="J33" s="55" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K33" s="55"/>
       <c r="L33" s="55" t="s">
@@ -6787,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="55" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q33" s="55" t="s">
         <v>47</v>
@@ -6803,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="V33" s="55" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W33" s="58" t="b">
         <v>1</v>
@@ -6813,49 +6837,49 @@
         <v>141</v>
       </c>
       <c r="Z33" s="55" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AA33" s="55"/>
       <c r="AB33" s="55" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AC33" s="55"/>
       <c r="AD33" s="55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="E34" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="F34" s="67" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:54" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>308</v>
-      </c>
-      <c r="C34" s="78" t="s">
-        <v>309</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="E34" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="F34" s="67" t="s">
-        <v>311</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>39</v>
       </c>
       <c r="H34" s="78" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I34" s="67"/>
       <c r="J34" s="67" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K34" s="67"/>
       <c r="L34" s="67" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M34" s="67" t="s">
         <v>127</v>
@@ -6865,10 +6889,10 @@
       </c>
       <c r="O34" s="67"/>
       <c r="P34" s="67" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q34" s="67" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="R34" s="67"/>
       <c r="S34" s="67"/>
@@ -6879,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="V34" s="55" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W34" s="58" t="b">
         <v>1</v>
@@ -6892,16 +6916,16 @@
         <v>70</v>
       </c>
       <c r="AA34" s="67" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AB34" s="67" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AC34" s="67" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AD34" s="67" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
@@ -6928,20 +6952,20 @@
       <c r="BA34" s="5"/>
       <c r="BB34" s="5"/>
     </row>
-    <row r="35" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A35" s="55" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
       <c r="D35" s="55" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>93</v>
@@ -6950,10 +6974,10 @@
         <v>94</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J35" s="55" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K35" s="55"/>
       <c r="L35" s="55" t="s">
@@ -6969,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="55" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q35" s="55" t="s">
         <v>47</v>
@@ -6985,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="V35" s="55" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W35" s="58" t="b">
         <v>1</v>
@@ -7001,45 +7025,45 @@
       </c>
       <c r="AA35" s="55"/>
       <c r="AB35" s="55" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AC35" s="55"/>
       <c r="AD35" s="55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="36" spans="1:54" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B36" s="84" t="s">
-        <v>327</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="42" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>127</v>
@@ -7049,10 +7073,10 @@
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
@@ -7063,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W36" s="41" t="b">
         <v>1</v>
@@ -7075,16 +7099,16 @@
         <v>70</v>
       </c>
       <c r="AA36" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
@@ -7111,30 +7135,30 @@
       <c r="BA36" s="5"/>
       <c r="BB36" s="5"/>
     </row>
-    <row r="37" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D37" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E37" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F37" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M37" t="s">
         <v>127</v>
@@ -7143,7 +7167,7 @@
         <v>34</v>
       </c>
       <c r="P37" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q37" t="s">
         <v>47</v>
@@ -7155,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="V37" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W37" s="41" t="b">
         <v>1</v>
@@ -7167,40 +7191,40 @@
         <v>70</v>
       </c>
       <c r="AB37" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AD37" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:54" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E38" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G38" t="s">
         <v>39</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I38"/>
       <c r="J38" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K38"/>
       <c r="L38" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s">
         <v>44</v>
@@ -7212,7 +7236,7 @@
         <v>3</v>
       </c>
       <c r="P38" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q38" t="s">
         <v>47</v>
@@ -7227,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="V38" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W38" s="41" t="b">
         <v>1</v>
@@ -7240,16 +7264,16 @@
       </c>
       <c r="AA38"/>
       <c r="AB38" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AC38"/>
       <c r="AD38" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:54" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B39"/>
       <c r="C39" s="12" t="str">
@@ -7257,13 +7281,13 @@
         <v/>
       </c>
       <c r="D39" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E39" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F39" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G39" t="s">
         <v>134</v>
@@ -7273,10 +7297,10 @@
       </c>
       <c r="I39"/>
       <c r="J39" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K39" s="29" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s">
         <v>56</v>
@@ -7291,7 +7315,7 @@
         <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q39"/>
       <c r="R39">
@@ -7305,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="V39" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W39" s="41" t="b">
         <v>1</v>
@@ -7321,11 +7345,11 @@
       </c>
       <c r="AA39"/>
       <c r="AB39" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AC39"/>
       <c r="AD39" s="29" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AE39"/>
       <c r="AF39"/>
@@ -7352,9 +7376,9 @@
       <c r="BA39"/>
       <c r="BB39"/>
     </row>
-    <row r="40" spans="1:54" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B40"/>
       <c r="C40" s="12" t="str">
@@ -7362,13 +7386,13 @@
         <v/>
       </c>
       <c r="D40" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E40" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F40" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G40" t="s">
         <v>134</v>
@@ -7378,10 +7402,10 @@
       </c>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K40" s="29" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s">
         <v>56</v>
@@ -7396,7 +7420,7 @@
         <v>3</v>
       </c>
       <c r="P40" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q40"/>
       <c r="R40">
@@ -7410,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W40" s="41" t="b">
         <v>1</v>
@@ -7426,11 +7450,11 @@
       </c>
       <c r="AA40"/>
       <c r="AB40" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AC40"/>
       <c r="AD40" s="29" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AE40"/>
       <c r="AF40"/>
@@ -7457,9 +7481,9 @@
       <c r="BA40"/>
       <c r="BB40"/>
     </row>
-    <row r="41" spans="1:54" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="12" t="str">
@@ -7467,13 +7491,13 @@
         <v/>
       </c>
       <c r="D41" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F41" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G41" t="s">
         <v>134</v>
@@ -7483,10 +7507,10 @@
       </c>
       <c r="I41" s="3"/>
       <c r="J41" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s">
         <v>56</v>
@@ -7499,7 +7523,7 @@
       </c>
       <c r="O41"/>
       <c r="P41" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q41"/>
       <c r="R41"/>
@@ -7511,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="V41" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W41" s="41" t="b">
         <v>1</v>
@@ -7527,11 +7551,11 @@
       </c>
       <c r="AA41"/>
       <c r="AB41" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AC41"/>
       <c r="AD41" s="29" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AE41"/>
       <c r="AF41"/>
@@ -7558,22 +7582,22 @@
       <c r="BA41"/>
       <c r="BB41"/>
     </row>
-    <row r="42" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C42" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D42" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G42" t="s">
         <v>134</v>
@@ -7582,16 +7606,16 @@
         <v>135</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K42" s="29" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s">
         <v>139</v>
@@ -7609,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="V42" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W42" s="41" t="b">
         <v>1</v>
@@ -7624,31 +7648,31 @@
         <v>70</v>
       </c>
       <c r="AA42" s="13" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AB42" s="29" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AD42" s="29" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="43" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>377</v>
+        <v>1107</v>
       </c>
       <c r="C43" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D43" t="s">
-        <v>378</v>
+        <v>1108</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>1109</v>
       </c>
       <c r="G43" t="s">
         <v>134</v>
@@ -7657,10 +7681,10 @@
         <v>135</v>
       </c>
       <c r="J43" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K43" s="48" t="s">
-        <v>382</v>
+        <v>1110</v>
       </c>
       <c r="L43" t="s">
         <v>178</v>
@@ -7675,7 +7699,7 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -7687,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="V43" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W43" s="41" t="b">
         <v>1</v>
@@ -7696,43 +7720,43 @@
         <v>141</v>
       </c>
       <c r="Z43" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="AB43" t="s">
-        <v>378</v>
+        <v>1108</v>
       </c>
       <c r="AD43" s="48" t="s">
-        <v>382</v>
+        <v>1110</v>
       </c>
     </row>
-    <row r="44" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C44" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D44" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E44" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F44" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G44" t="s">
         <v>134</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="J44" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s">
         <v>178</v>
@@ -7747,7 +7771,7 @@
         <v>5</v>
       </c>
       <c r="P44" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -7759,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="V44" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W44" s="41" t="b">
         <v>1</v>
@@ -7774,33 +7798,33 @@
         <v>70</v>
       </c>
       <c r="AB44" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD44" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>382</v>
+      </c>
+      <c r="D45" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" t="s">
         <v>385</v>
-      </c>
-      <c r="AD44" s="29" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>392</v>
-      </c>
-      <c r="D45" t="s">
-        <v>393</v>
-      </c>
-      <c r="E45" t="s">
-        <v>394</v>
-      </c>
-      <c r="F45" t="s">
-        <v>395</v>
       </c>
       <c r="G45" t="s">
         <v>39</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="J45" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s">
         <v>97</v>
@@ -7815,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="Q45" t="s">
         <v>47</v>
@@ -7830,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W45" s="41" t="b">
         <v>1</v>
@@ -7839,33 +7863,33 @@
         <v>141</v>
       </c>
       <c r="AB45" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="AD45" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="46" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D46" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E46" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F46" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J46" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s">
         <v>97</v>
@@ -7880,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="Q46" t="s">
         <v>47</v>
@@ -7895,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W46" s="41" t="b">
         <v>1</v>
@@ -7904,33 +7928,33 @@
         <v>141</v>
       </c>
       <c r="AB46" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AD46" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="47" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D47" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E47" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F47" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="J47" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s">
         <v>97</v>
@@ -7945,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="Q47" t="s">
         <v>47</v>
@@ -7960,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="V47" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W47" s="41" t="b">
         <v>1</v>
@@ -7969,42 +7993,42 @@
         <v>141</v>
       </c>
       <c r="AB47" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AD47" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:54" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="12"/>
       <c r="D48" s="3" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E48" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="I48"/>
       <c r="J48" s="3" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="K48" s="29" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>139</v>
@@ -8016,10 +8040,10 @@
         <v>6</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -8032,7 +8056,7 @@
         <v>1</v>
       </c>
       <c r="V48" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W48" s="41" t="b">
         <v>1</v>
@@ -8045,11 +8069,11 @@
       </c>
       <c r="AA48"/>
       <c r="AB48" s="3" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="AC48" s="3"/>
       <c r="AD48" s="29" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="AE48"/>
       <c r="AF48"/>
@@ -8076,22 +8100,22 @@
       <c r="BA48"/>
       <c r="BB48"/>
     </row>
-    <row r="49" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C49" s="12" t="str">
         <f>HYPERLINK(IF(AC49="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B49)))</f>
         <v/>
       </c>
       <c r="D49" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E49" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F49" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G49" t="s">
         <v>112</v>
@@ -8100,10 +8124,10 @@
         <v>113</v>
       </c>
       <c r="J49" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="K49" s="29" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="L49" t="s">
         <v>117</v>
@@ -8127,7 +8151,7 @@
         <v>1</v>
       </c>
       <c r="V49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W49" s="41" t="b">
         <v>1</v>
@@ -8139,31 +8163,31 @@
         <v>119</v>
       </c>
       <c r="AB49" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AD49" s="29" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
-    <row r="50" spans="1:54" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C50" s="17" t="str">
         <f>HYPERLINK(IF(AC50="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B50)))</f>
         <v>https://databank.worldbank.org/source/world-development-indicators?Series=SH.MLR.NETS.ZS</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>39</v>
@@ -8173,7 +8197,7 @@
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="42" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5" t="s">
@@ -8189,7 +8213,7 @@
         <v>12</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5">
@@ -8203,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W50" s="41" t="b">
         <v>1</v>
@@ -8215,16 +8239,16 @@
         <v>70</v>
       </c>
       <c r="AA50" s="22" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AB50" s="22" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AC50" s="5" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="AD50" s="5" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
@@ -8251,32 +8275,32 @@
       <c r="BA50" s="5"/>
       <c r="BB50" s="5"/>
     </row>
-    <row r="51" spans="1:54" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="33"/>
       <c r="D51" s="31" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>63</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="J51" s="31" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="K51" s="29" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L51" s="31" t="s">
         <v>78</v>
@@ -8300,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="V51" s="31" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W51" s="41" t="b">
         <v>1</v>
@@ -8312,16 +8336,16 @@
         <v>70</v>
       </c>
       <c r="AA51" s="32" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="AB51" s="31" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AC51" s="32" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AD51" s="29" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="AE51"/>
       <c r="AF51"/>
@@ -8348,30 +8372,30 @@
       <c r="BA51"/>
       <c r="BB51"/>
     </row>
-    <row r="52" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D52" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F52" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G52" t="s">
         <v>39</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="J52" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L52" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M52" t="s">
         <v>127</v>
@@ -8383,10 +8407,10 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="Q52" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -8398,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="V52" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W52" s="41" t="b">
         <v>1</v>
@@ -8410,24 +8434,24 @@
         <v>70</v>
       </c>
       <c r="AB52" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>439</v>
+      </c>
+      <c r="D53" t="s">
+        <v>440</v>
+      </c>
+      <c r="E53" t="s">
+        <v>441</v>
+      </c>
+      <c r="F53" t="s">
         <v>442</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="53" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>449</v>
-      </c>
-      <c r="D53" t="s">
-        <v>450</v>
-      </c>
-      <c r="E53" t="s">
-        <v>451</v>
-      </c>
-      <c r="F53" t="s">
-        <v>452</v>
       </c>
       <c r="G53" t="s">
         <v>93</v>
@@ -8436,7 +8460,7 @@
         <v>94</v>
       </c>
       <c r="J53" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L53" t="s">
         <v>97</v>
@@ -8451,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q53" t="s">
         <v>47</v>
@@ -8466,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="V53" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W53" s="41" t="b">
         <v>1</v>
@@ -8478,27 +8502,27 @@
         <v>141</v>
       </c>
       <c r="Z53" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AB53" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AD53" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="54" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="D54" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E54" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F54" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="G54" t="s">
         <v>93</v>
@@ -8507,10 +8531,10 @@
         <v>94</v>
       </c>
       <c r="J54" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="L54" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M54" t="s">
         <v>30</v>
@@ -8522,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q54" t="s">
         <v>47</v>
@@ -8537,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="V54" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W54" s="41" t="b">
         <v>1</v>
@@ -8549,39 +8573,39 @@
         <v>141</v>
       </c>
       <c r="Z54" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AB54" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="AD54" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
-    <row r="55" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D55" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F55" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G55" t="s">
         <v>39</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="J55" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="L55" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M55" t="s">
         <v>127</v>
@@ -8593,7 +8617,7 @@
         <v>4</v>
       </c>
       <c r="P55" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="Q55" t="s">
         <v>47</v>
@@ -8608,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="V55" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W55" s="41" t="b">
         <v>1</v>
@@ -8620,36 +8644,36 @@
         <v>70</v>
       </c>
       <c r="AB55" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AD55" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="56" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D56" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="E56" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F56" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="J56" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="L56" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M56" t="s">
         <v>139</v>
@@ -8661,7 +8685,7 @@
         <v>7</v>
       </c>
       <c r="P56" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="Q56" t="s">
         <v>47</v>
@@ -8676,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="V56" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W56" s="41" t="b">
         <v>1</v>
@@ -8685,18 +8709,18 @@
         <v>141</v>
       </c>
       <c r="Z56" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="AB56" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="AD56" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="57" spans="1:54" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B57"/>
       <c r="C57" s="12" t="str">
@@ -8704,29 +8728,29 @@
         <v/>
       </c>
       <c r="D57" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F57" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G57" t="s">
         <v>134</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="I57"/>
       <c r="J57" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K57" s="29" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M57" t="s">
         <v>139</v>
@@ -8738,7 +8762,7 @@
         <v>2</v>
       </c>
       <c r="P57" s="15" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="Q57"/>
       <c r="R57">
@@ -8752,7 +8776,7 @@
         <v>1</v>
       </c>
       <c r="V57" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W57" s="41" t="b">
         <v>1</v>
@@ -8765,11 +8789,11 @@
       </c>
       <c r="AA57"/>
       <c r="AB57" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="AC57"/>
       <c r="AD57" s="29" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="AE57"/>
       <c r="AF57"/>
@@ -8796,36 +8820,36 @@
       <c r="BA57"/>
       <c r="BB57"/>
     </row>
-    <row r="58" spans="1:54" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="J58" s="42" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="L58" s="36" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M58" s="36" t="s">
         <v>127</v>
@@ -8837,10 +8861,10 @@
         <v>11</v>
       </c>
       <c r="P58" s="36" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="Q58" s="36" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="R58" s="36">
         <v>1</v>
@@ -8852,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="V58" s="36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W58" s="41" t="b">
         <v>1</v>
@@ -8867,16 +8891,16 @@
         <v>70</v>
       </c>
       <c r="AA58" s="36" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="AB58" s="36" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="AC58" s="36" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="AD58" s="36" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
@@ -8903,36 +8927,36 @@
       <c r="BA58" s="5"/>
       <c r="BB58" s="5"/>
     </row>
-    <row r="59" spans="1:54" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G59" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="J59" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="H59" s="37" t="s">
-        <v>487</v>
-      </c>
-      <c r="J59" s="42" t="s">
-        <v>496</v>
-      </c>
       <c r="L59" s="36" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M59" s="36" t="s">
         <v>127</v>
@@ -8944,10 +8968,10 @@
         <v>10</v>
       </c>
       <c r="P59" s="36" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="Q59" s="36" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="R59" s="36">
         <v>1</v>
@@ -8959,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="V59" s="36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W59" s="41" t="b">
         <v>1</v>
@@ -8974,16 +8998,16 @@
         <v>70</v>
       </c>
       <c r="AA59" s="36" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="AB59" s="36" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="AC59" s="36" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="AD59" s="36" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
@@ -9010,34 +9034,34 @@
       <c r="BA59" s="5"/>
       <c r="BB59" s="5"/>
     </row>
-    <row r="60" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C60" s="17" t="str">
         <f>HYPERLINK(IF(AC60="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B60)))</f>
         <v>https://databank.worldbank.org/source/world-development-indicators?Series=SH.DYN.NMRT</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>134</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="J60" s="42" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>178</v>
@@ -9052,7 +9076,7 @@
         <v>1</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="R60" s="5">
         <v>0</v>
@@ -9064,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="V60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W60" s="41" t="b">
         <v>1</v>
@@ -9076,45 +9100,45 @@
         <v>141</v>
       </c>
       <c r="Z60" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="AA60" s="5" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="AB60" s="5" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="AC60" s="5" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="AD60" s="5" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="61" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D61" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="E61" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="G61" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="J61" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="M61" t="s">
         <v>139</v>
@@ -9126,10 +9150,10 @@
         <v>4</v>
       </c>
       <c r="P61" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="Q61" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -9141,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="V61" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W61" s="41" t="b">
         <v>1</v>
@@ -9156,39 +9180,39 @@
         <v>70</v>
       </c>
       <c r="AB61" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>508</v>
+      </c>
+      <c r="D62" t="s">
         <v>509</v>
       </c>
-      <c r="AD61" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="62" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>518</v>
-      </c>
-      <c r="D62" t="s">
-        <v>519</v>
-      </c>
       <c r="E62" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="G62" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H62" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J62" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="K62" s="54" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L62" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M62" t="s">
         <v>139</v>
@@ -9197,10 +9221,10 @@
         <v>34</v>
       </c>
       <c r="P62" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="Q62" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="T62" t="s">
         <v>33</v>
@@ -9209,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="V62" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W62" s="41" t="b">
         <v>1</v>
@@ -9224,42 +9248,42 @@
         <v>70</v>
       </c>
       <c r="AB62" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="AD62" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
-    <row r="63" spans="1:54" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="F63" s="36" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="J63" s="42" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="M63" s="36" t="s">
         <v>127</v>
@@ -9271,10 +9295,10 @@
         <v>3</v>
       </c>
       <c r="P63" s="36" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="Q63" s="36" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="R63" s="36">
         <v>1</v>
@@ -9286,7 +9310,7 @@
         <v>1</v>
       </c>
       <c r="V63" s="36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W63" s="41" t="b">
         <v>1</v>
@@ -9301,16 +9325,16 @@
         <v>70</v>
       </c>
       <c r="AA63" s="22" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="AB63" s="22" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="AC63" s="36" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="AD63" s="36" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
@@ -9337,37 +9361,37 @@
       <c r="BA63" s="5"/>
       <c r="BB63" s="5"/>
     </row>
-    <row r="64" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I64"/>
       <c r="J64" s="45" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="M64" s="5" t="s">
         <v>127</v>
@@ -9376,10 +9400,10 @@
         <v>34</v>
       </c>
       <c r="P64" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="T64" t="s">
         <v>33</v>
@@ -9388,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="V64" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W64" s="41" t="b">
         <v>1</v>
@@ -9400,45 +9424,45 @@
         <v>119</v>
       </c>
       <c r="AA64" s="5" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="AB64" s="5" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="AD64" s="5" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
-    <row r="65" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B65" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D65" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E65" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F65" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G65" t="s">
         <v>39</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="J65" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L65" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M65" t="s">
         <v>127</v>
@@ -9450,10 +9474,10 @@
         <v>12</v>
       </c>
       <c r="P65" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q65" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -9465,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="V65" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="W65" s="41" t="b">
         <v>1</v>
@@ -9477,51 +9501,51 @@
         <v>70</v>
       </c>
       <c r="AA65" t="s">
+        <v>540</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="66" spans="1:54" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="K66" s="31" t="s">
         <v>550</v>
       </c>
-      <c r="AB65" t="s">
-        <v>550</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>554</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="66" spans="1:54" s="31" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="31" t="s">
-        <v>555</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>556</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>557</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="G66" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="H66" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="J66" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="K66" s="31" t="s">
-        <v>560</v>
-      </c>
       <c r="L66" s="31" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M66" s="31" t="s">
         <v>127</v>
@@ -9533,10 +9557,10 @@
         <v>6</v>
       </c>
       <c r="P66" s="31" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="Q66" s="31" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="R66" s="31">
         <v>0</v>
@@ -9548,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="V66" s="31" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W66" s="50" t="b">
         <v>1</v>
@@ -9557,16 +9581,16 @@
         <v>70</v>
       </c>
       <c r="AA66" s="4" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="AB66" s="4" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="AC66" s="51" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="AD66" s="51" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="AE66"/>
       <c r="AF66"/>
@@ -9593,39 +9617,39 @@
       <c r="BA66"/>
       <c r="BB66"/>
     </row>
-    <row r="67" spans="1:54" s="5" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J67" s="42" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M67" s="5" t="s">
         <v>127</v>
@@ -9637,10 +9661,10 @@
         <v>7</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="R67" s="5">
         <v>0</v>
@@ -9652,7 +9676,7 @@
         <v>1</v>
       </c>
       <c r="V67" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W67" s="41" t="b">
         <v>1</v>
@@ -9661,48 +9685,48 @@
         <v>70</v>
       </c>
       <c r="AA67" s="4" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="AB67" s="4" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="AC67" s="51" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="AD67" s="51" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="68" spans="1:54" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F68" s="36" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>134</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="J68" s="42" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="K68" s="36" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="L68" s="36" t="s">
         <v>178</v>
@@ -9717,7 +9741,7 @@
         <v>2</v>
       </c>
       <c r="P68" s="36" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="R68" s="36">
         <v>1</v>
@@ -9729,7 +9753,7 @@
         <v>1</v>
       </c>
       <c r="V68" s="36" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W68" s="41" t="b">
         <v>1</v>
@@ -9738,16 +9762,16 @@
         <v>70</v>
       </c>
       <c r="AA68" s="22" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="AB68" s="22" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="AC68" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="AD68" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
@@ -9774,22 +9798,22 @@
       <c r="BA68" s="5"/>
       <c r="BB68" s="5"/>
     </row>
-    <row r="69" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C69" s="12" t="str">
         <f>HYPERLINK(IF(AC69="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B69)))</f>
         <v/>
       </c>
       <c r="D69" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F69" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="G69" t="s">
         <v>134</v>
@@ -9798,13 +9822,13 @@
         <v>135</v>
       </c>
       <c r="I69" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="J69" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="K69" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="L69" t="s">
         <v>178</v>
@@ -9816,7 +9840,7 @@
         <v>45</v>
       </c>
       <c r="P69" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="T69" t="s">
         <v>32</v>
@@ -9825,7 +9849,7 @@
         <v>1</v>
       </c>
       <c r="V69" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W69" s="41" t="b">
         <v>1</v>
@@ -9834,28 +9858,28 @@
         <v>70</v>
       </c>
       <c r="AB69" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="AD69" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="70" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C70" s="12" t="str">
         <f>HYPERLINK(IF(AC70="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B70)))</f>
         <v/>
       </c>
       <c r="D70" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="F70" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="G70" t="s">
         <v>134</v>
@@ -9864,13 +9888,13 @@
         <v>135</v>
       </c>
       <c r="I70" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="J70" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="K70" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="L70" t="s">
         <v>178</v>
@@ -9882,7 +9906,7 @@
         <v>45</v>
       </c>
       <c r="P70" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="T70" t="s">
         <v>32</v>
@@ -9891,7 +9915,7 @@
         <v>1</v>
       </c>
       <c r="V70" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W70" s="41" t="b">
         <v>1</v>
@@ -9900,28 +9924,28 @@
         <v>70</v>
       </c>
       <c r="AB70" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="AD70" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
-    <row r="71" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C71" s="12" t="str">
         <f>HYPERLINK(IF(AC71="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B71)))</f>
         <v/>
       </c>
       <c r="D71" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="F71" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="G71" t="s">
         <v>134</v>
@@ -9930,13 +9954,13 @@
         <v>135</v>
       </c>
       <c r="I71" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="J71" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="K71" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="L71" t="s">
         <v>178</v>
@@ -9948,7 +9972,7 @@
         <v>45</v>
       </c>
       <c r="P71" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="T71" t="s">
         <v>32</v>
@@ -9957,7 +9981,7 @@
         <v>1</v>
       </c>
       <c r="V71" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W71" s="41" t="b">
         <v>1</v>
@@ -9966,45 +9990,45 @@
         <v>70</v>
       </c>
       <c r="AB71" t="s">
+        <v>592</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="72" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="H72" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="AD71" t="s">
+      <c r="J72" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="K72" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="72" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="D72" s="42" t="s">
-        <v>608</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="J72" s="42" t="s">
-        <v>613</v>
-      </c>
-      <c r="K72" t="s">
-        <v>614</v>
-      </c>
       <c r="L72" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M72" s="5" t="s">
         <v>139</v>
@@ -10013,10 +10037,10 @@
         <v>45</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="T72" t="s">
         <v>32</v>
@@ -10025,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="V72" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W72" s="41" t="b">
         <v>1</v>
@@ -10034,34 +10058,34 @@
         <v>70</v>
       </c>
       <c r="AA72" s="22" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="AB72" s="22" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="AC72" s="5" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="AD72" s="5" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="73" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C73" s="12" t="str">
         <f t="shared" ref="C73:C88" si="1">HYPERLINK(IF(AC73="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B73)))</f>
         <v/>
       </c>
       <c r="D73" s="4" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F73" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="G73" t="s">
         <v>134</v>
@@ -10070,10 +10094,10 @@
         <v>135</v>
       </c>
       <c r="J73" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="K73" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="L73" t="s">
         <v>178</v>
@@ -10085,7 +10109,7 @@
         <v>45</v>
       </c>
       <c r="P73" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="T73" t="s">
         <v>32</v>
@@ -10094,7 +10118,7 @@
         <v>1</v>
       </c>
       <c r="V73" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W73" s="41" t="b">
         <v>1</v>
@@ -10103,31 +10127,31 @@
         <v>70</v>
       </c>
       <c r="AB73" s="4" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="AD73" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="74" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C74" s="17" t="str">
         <f t="shared" si="1"/>
         <v>https://databank.worldbank.org/source/world-development-indicators?Series=SH.STA.ORTH</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>134</v>
@@ -10136,10 +10160,10 @@
         <v>135</v>
       </c>
       <c r="J74" s="42" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="L74" s="5" t="s">
         <v>178</v>
@@ -10151,7 +10175,7 @@
         <v>45</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="T74" t="s">
         <v>32</v>
@@ -10160,7 +10184,7 @@
         <v>1</v>
       </c>
       <c r="V74" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W74" s="41" t="b">
         <v>1</v>
@@ -10169,34 +10193,34 @@
         <v>70</v>
       </c>
       <c r="AA74" s="22" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="AB74" s="22" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="AC74" s="5" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="AD74" s="5" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="75" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C75" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D75" s="4" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F75" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G75" t="s">
         <v>134</v>
@@ -10205,13 +10229,13 @@
         <v>135</v>
       </c>
       <c r="J75" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="K75" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="L75" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M75" t="s">
         <v>139</v>
@@ -10229,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="V75" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W75" s="41" t="b">
         <v>1</v>
@@ -10238,28 +10262,28 @@
         <v>70</v>
       </c>
       <c r="AB75" s="4" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="AD75" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
-    <row r="76" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C76" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D76" s="4" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F76" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="G76" t="s">
         <v>134</v>
@@ -10268,10 +10292,10 @@
         <v>135</v>
       </c>
       <c r="J76" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="K76" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="L76" t="s">
         <v>178</v>
@@ -10283,7 +10307,7 @@
         <v>45</v>
       </c>
       <c r="P76" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="T76" t="s">
         <v>32</v>
@@ -10292,7 +10316,7 @@
         <v>1</v>
       </c>
       <c r="V76" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W76" s="41" t="b">
         <v>1</v>
@@ -10301,28 +10325,28 @@
         <v>70</v>
       </c>
       <c r="AB76" s="4" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="AD76" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
-    <row r="77" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C77" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D77" s="4" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F77" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="G77" t="s">
         <v>134</v>
@@ -10331,10 +10355,10 @@
         <v>135</v>
       </c>
       <c r="J77" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="K77" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="L77" t="s">
         <v>178</v>
@@ -10346,7 +10370,7 @@
         <v>45</v>
       </c>
       <c r="P77" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="T77" t="s">
         <v>32</v>
@@ -10355,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="V77" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W77" s="41" t="b">
         <v>1</v>
@@ -10364,28 +10388,28 @@
         <v>70</v>
       </c>
       <c r="AB77" s="4" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="AD77" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="78" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C78" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D78" s="4" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="F78" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="G78" t="s">
         <v>134</v>
@@ -10394,13 +10418,13 @@
         <v>135</v>
       </c>
       <c r="J78" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="K78" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="L78" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M78" t="s">
         <v>139</v>
@@ -10418,7 +10442,7 @@
         <v>1</v>
       </c>
       <c r="V78" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W78" s="41" t="b">
         <v>1</v>
@@ -10427,28 +10451,28 @@
         <v>70</v>
       </c>
       <c r="AB78" s="4" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="AD78" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="79" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C79" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D79" s="4" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="F79" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="G79" t="s">
         <v>134</v>
@@ -10457,10 +10481,10 @@
         <v>135</v>
       </c>
       <c r="J79" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K79" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="L79" t="s">
         <v>178</v>
@@ -10472,7 +10496,7 @@
         <v>45</v>
       </c>
       <c r="P79" s="15" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="T79" t="s">
         <v>32</v>
@@ -10481,7 +10505,7 @@
         <v>1</v>
       </c>
       <c r="V79" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W79" s="41" t="b">
         <v>1</v>
@@ -10490,28 +10514,28 @@
         <v>70</v>
       </c>
       <c r="AB79" s="4" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="AD79" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
-    <row r="80" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C80" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D80" s="4" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F80" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G80" t="s">
         <v>134</v>
@@ -10520,10 +10544,10 @@
         <v>135</v>
       </c>
       <c r="J80" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="K80" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="L80" t="s">
         <v>178</v>
@@ -10535,7 +10559,7 @@
         <v>45</v>
       </c>
       <c r="P80" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="T80" t="s">
         <v>32</v>
@@ -10544,7 +10568,7 @@
         <v>1</v>
       </c>
       <c r="V80" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W80" s="41" t="b">
         <v>1</v>
@@ -10553,28 +10577,28 @@
         <v>70</v>
       </c>
       <c r="AB80" s="4" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="AD80" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
-    <row r="81" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C81" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D81" s="4" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="F81" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="G81" t="s">
         <v>134</v>
@@ -10583,13 +10607,13 @@
         <v>135</v>
       </c>
       <c r="J81" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="K81" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="L81" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M81" t="s">
         <v>139</v>
@@ -10607,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="V81" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W81" s="41" t="b">
         <v>1</v>
@@ -10616,15 +10640,15 @@
         <v>70</v>
       </c>
       <c r="AB81" s="4" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="AD81" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
-    <row r="82" spans="1:54" s="4" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:54" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B82"/>
       <c r="C82" s="12" t="str">
@@ -10632,13 +10656,13 @@
         <v/>
       </c>
       <c r="D82" s="4" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="F82" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="G82" t="s">
         <v>134</v>
@@ -10648,13 +10672,13 @@
       </c>
       <c r="I82"/>
       <c r="J82" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="K82" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="L82" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M82" t="s">
         <v>139</v>
@@ -10676,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="V82" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W82" s="41" t="b">
         <v>1</v>
@@ -10686,11 +10710,11 @@
       </c>
       <c r="AA82"/>
       <c r="AB82" s="4" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="AC82"/>
       <c r="AD82" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="AE82"/>
       <c r="AF82"/>
@@ -10717,22 +10741,22 @@
       <c r="BA82"/>
       <c r="BB82"/>
     </row>
-    <row r="83" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="C83" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D83" s="4" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="F83" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="G83" t="s">
         <v>134</v>
@@ -10741,13 +10765,13 @@
         <v>135</v>
       </c>
       <c r="J83" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="K83" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="L83" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M83" t="s">
         <v>139</v>
@@ -10765,7 +10789,7 @@
         <v>1</v>
       </c>
       <c r="V83" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W83" s="41" t="b">
         <v>1</v>
@@ -10774,28 +10798,28 @@
         <v>70</v>
       </c>
       <c r="AB83" s="4" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="AD83" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
-    <row r="84" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C84" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D84" s="4" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="F84" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="G84" t="s">
         <v>134</v>
@@ -10804,13 +10828,13 @@
         <v>135</v>
       </c>
       <c r="J84" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="K84" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="L84" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M84" t="s">
         <v>139</v>
@@ -10828,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="V84" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W84" s="41" t="b">
         <v>1</v>
@@ -10837,28 +10861,28 @@
         <v>70</v>
       </c>
       <c r="AB84" s="4" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="AD84" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
-    <row r="85" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C85" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D85" s="4" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="F85" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="G85" t="s">
         <v>134</v>
@@ -10867,13 +10891,13 @@
         <v>135</v>
       </c>
       <c r="J85" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="K85" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="L85" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M85" t="s">
         <v>139</v>
@@ -10891,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="V85" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W85" s="41" t="b">
         <v>1</v>
@@ -10900,28 +10924,28 @@
         <v>70</v>
       </c>
       <c r="AB85" s="4" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="AD85" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
-    <row r="86" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C86" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D86" s="4" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="F86" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="G86" t="s">
         <v>134</v>
@@ -10930,13 +10954,13 @@
         <v>135</v>
       </c>
       <c r="J86" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="K86" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="L86" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M86" t="s">
         <v>139</v>
@@ -10954,7 +10978,7 @@
         <v>1</v>
       </c>
       <c r="V86" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W86" s="41" t="b">
         <v>1</v>
@@ -10963,40 +10987,40 @@
         <v>70</v>
       </c>
       <c r="AB86" s="4" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="AD86" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
     </row>
-    <row r="87" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C87" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D87" s="4" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="F87" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="G87" t="s">
         <v>134</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="J87" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="K87" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="L87" t="s">
         <v>178</v>
@@ -11008,7 +11032,7 @@
         <v>45</v>
       </c>
       <c r="P87" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="T87" t="s">
         <v>32</v>
@@ -11017,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="V87" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W87" s="41" t="b">
         <v>1</v>
@@ -11026,28 +11050,28 @@
         <v>70</v>
       </c>
       <c r="AB87" s="4" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="AD87" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
-    <row r="88" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C88" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D88" s="4" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="F88" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="G88" t="s">
         <v>134</v>
@@ -11056,10 +11080,10 @@
         <v>135</v>
       </c>
       <c r="J88" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="K88" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="L88" t="s">
         <v>178</v>
@@ -11071,7 +11095,7 @@
         <v>45</v>
       </c>
       <c r="P88" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="T88" t="s">
         <v>32</v>
@@ -11080,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="V88" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W88" s="41" t="b">
         <v>1</v>
@@ -11089,30 +11113,30 @@
         <v>70</v>
       </c>
       <c r="AB88" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="89" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="E89" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="AD88" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="89" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="D89" s="45" t="s">
-        <v>724</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>725</v>
-      </c>
       <c r="F89" s="5" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>134</v>
@@ -11121,10 +11145,10 @@
         <v>135</v>
       </c>
       <c r="J89" s="42" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="K89" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>178</v>
@@ -11136,7 +11160,7 @@
         <v>45</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="T89" t="s">
         <v>32</v>
@@ -11145,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="V89" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W89" s="41" t="b">
         <v>1</v>
@@ -11154,30 +11178,30 @@
         <v>70</v>
       </c>
       <c r="AA89" s="5" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="AB89" s="5" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="AC89" s="5" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="AD89" s="5" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
-    <row r="90" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F90" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G90" t="s">
         <v>134</v>
@@ -11186,10 +11210,10 @@
         <v>135</v>
       </c>
       <c r="J90" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="K90" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="L90" t="s">
         <v>178</v>
@@ -11201,7 +11225,7 @@
         <v>45</v>
       </c>
       <c r="P90" s="15" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="T90" t="s">
         <v>32</v>
@@ -11210,7 +11234,7 @@
         <v>1</v>
       </c>
       <c r="V90" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W90" s="41" t="b">
         <v>1</v>
@@ -11219,43 +11243,43 @@
         <v>70</v>
       </c>
       <c r="AB90" s="4" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="AD90" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
-    <row r="91" spans="1:54" s="5" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C91" s="17" t="str">
         <f>HYPERLINK(IF(AC91="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B91)))</f>
         <v>https://databank.worldbank.org/source/world-development-indicators?Series=SP.POP.TOTL</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="J91" s="42" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M91" s="5" t="s">
         <v>30</v>
@@ -11264,7 +11288,7 @@
         <v>68</v>
       </c>
       <c r="P91" s="5" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="Q91" s="5" t="s">
         <v>58</v>
@@ -11276,45 +11300,45 @@
         <v>1</v>
       </c>
       <c r="V91" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W91" s="41" t="b">
         <v>1</v>
       </c>
       <c r="Z91" s="5" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="AA91" s="47" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="AB91" s="47" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="AC91" s="5" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="AD91" s="5" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
-    <row r="92" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D92" s="42" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>134</v>
@@ -11324,10 +11348,10 @@
       </c>
       <c r="I92"/>
       <c r="J92" s="42" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="K92" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>56</v>
@@ -11342,7 +11366,7 @@
         <v>17</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="R92" s="5">
         <v>1</v>
@@ -11366,45 +11390,45 @@
         <v>70</v>
       </c>
       <c r="AA92" s="22" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="AB92" s="22" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="AC92" s="5" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="AD92" s="5" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
-    <row r="93" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D93" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F93" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="G93" t="s">
         <v>134</v>
       </c>
       <c r="H93" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="J93" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="K93" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="L93" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="M93" t="s">
         <v>44</v>
@@ -11416,7 +11440,7 @@
         <v>7</v>
       </c>
       <c r="P93" s="15" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="R93">
         <v>1</v>
@@ -11428,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="V93" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W93" s="41" t="b">
         <v>1</v>
@@ -11437,33 +11461,33 @@
         <v>70</v>
       </c>
       <c r="AB93" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="94" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>757</v>
+      </c>
+      <c r="D94" t="s">
+        <v>758</v>
+      </c>
+      <c r="E94" t="s">
         <v>759</v>
       </c>
-      <c r="AD93" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="94" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>767</v>
-      </c>
-      <c r="D94" t="s">
-        <v>768</v>
-      </c>
-      <c r="E94" t="s">
-        <v>769</v>
-      </c>
       <c r="F94" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G94" t="s">
         <v>134</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="J94" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="L94" t="s">
         <v>178</v>
@@ -11478,7 +11502,7 @@
         <v>5</v>
       </c>
       <c r="P94" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="R94">
         <v>1</v>
@@ -11490,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="V94" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W94" s="41" t="b">
         <v>1</v>
@@ -11499,36 +11523,36 @@
         <v>70</v>
       </c>
       <c r="AB94" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="AD94" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
-    <row r="95" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D95" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="E95" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F95" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G95" t="s">
         <v>39</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="J95" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="L95" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M95" t="s">
         <v>139</v>
@@ -11540,7 +11564,7 @@
         <v>3</v>
       </c>
       <c r="P95" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q95" t="s">
         <v>47</v>
@@ -11555,7 +11579,7 @@
         <v>1</v>
       </c>
       <c r="V95" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W95" s="41" t="b">
         <v>1</v>
@@ -11564,30 +11588,30 @@
         <v>70</v>
       </c>
       <c r="AB95" t="s">
+        <v>764</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="96" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>774</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="96" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>781</v>
-      </c>
-      <c r="D96" s="42" t="s">
-        <v>782</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>784</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>52</v>
@@ -11596,10 +11620,10 @@
         <v>53</v>
       </c>
       <c r="J96" s="42" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="M96" s="5" t="s">
         <v>139</v>
@@ -11611,7 +11635,7 @@
         <v>10</v>
       </c>
       <c r="P96" s="24" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="Q96" s="5" t="s">
         <v>58</v>
@@ -11626,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="V96" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W96" s="41" t="b">
         <v>1</v>
@@ -11635,30 +11659,30 @@
         <v>70</v>
       </c>
       <c r="AA96" s="5" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="AB96" s="5" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="AC96" s="5" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="AD96" s="5" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
-    <row r="97" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="D97" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="E97" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="G97" t="s">
         <v>52</v>
@@ -11667,10 +11691,10 @@
         <v>53</v>
       </c>
       <c r="J97" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="L97" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="M97" t="s">
         <v>30</v>
@@ -11682,7 +11706,7 @@
         <v>5</v>
       </c>
       <c r="P97" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="Q97" t="s">
         <v>58</v>
@@ -11697,7 +11721,7 @@
         <v>1</v>
       </c>
       <c r="V97" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W97" s="41" t="b">
         <v>1</v>
@@ -11706,24 +11730,24 @@
         <v>70</v>
       </c>
       <c r="AB97" t="s">
+        <v>781</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="98" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>788</v>
+      </c>
+      <c r="D98" t="s">
+        <v>789</v>
+      </c>
+      <c r="E98" t="s">
+        <v>790</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>791</v>
-      </c>
-      <c r="AD97" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="98" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>798</v>
-      </c>
-      <c r="D98" t="s">
-        <v>799</v>
-      </c>
-      <c r="E98" t="s">
-        <v>800</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>801</v>
       </c>
       <c r="G98" t="s">
         <v>52</v>
@@ -11732,10 +11756,10 @@
         <v>53</v>
       </c>
       <c r="J98" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="L98" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="M98" t="s">
         <v>127</v>
@@ -11744,7 +11768,7 @@
         <v>45</v>
       </c>
       <c r="P98" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="Q98" t="s">
         <v>58</v>
@@ -11756,7 +11780,7 @@
         <v>1</v>
       </c>
       <c r="V98" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W98" s="41" t="b">
         <v>1</v>
@@ -11765,45 +11789,45 @@
         <v>70</v>
       </c>
       <c r="AB98" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="99" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="D99" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="AD98" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="99" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="D99" s="42" t="s">
-        <v>809</v>
-      </c>
       <c r="E99" s="5" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="J99" s="42" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M99" s="5" t="s">
         <v>139</v>
@@ -11812,10 +11836,10 @@
         <v>45</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="Q99" s="5" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="T99" t="s">
         <v>32</v>
@@ -11824,7 +11848,7 @@
         <v>1</v>
       </c>
       <c r="V99" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W99" s="41" t="b">
         <v>1</v>
@@ -11833,30 +11857,30 @@
         <v>70</v>
       </c>
       <c r="AA99" s="5" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="AB99" s="5" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="AC99" s="5" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="AD99" s="5" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
-    <row r="100" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="D100" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="E100" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="G100" t="s">
         <v>52</v>
@@ -11865,13 +11889,13 @@
         <v>53</v>
       </c>
       <c r="J100" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="K100" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="L100" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="M100" t="s">
         <v>30</v>
@@ -11883,7 +11907,7 @@
         <v>6</v>
       </c>
       <c r="P100" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="Q100" t="s">
         <v>58</v>
@@ -11898,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="V100" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="W100" s="41" t="b">
         <v>1</v>
@@ -11907,39 +11931,39 @@
         <v>70</v>
       </c>
       <c r="AB100" t="s">
+        <v>807</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="101" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>814</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="E101" t="s">
+        <v>816</v>
+      </c>
+      <c r="F101" t="s">
         <v>817</v>
       </c>
-      <c r="AD100" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="101" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>824</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="E101" t="s">
-        <v>826</v>
-      </c>
-      <c r="F101" t="s">
-        <v>827</v>
-      </c>
       <c r="G101" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="J101" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="K101" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="L101" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M101" t="s">
         <v>139</v>
@@ -11951,10 +11975,10 @@
         <v>140</v>
       </c>
       <c r="Q101" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="T101" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U101" s="41" t="b">
         <v>1</v>
@@ -11972,36 +11996,36 @@
         <v>70</v>
       </c>
       <c r="AB101" s="4" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="AD101" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
-    <row r="102" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="F102" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="G102" t="s">
         <v>39</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="J102" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="L102" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M102" t="s">
         <v>127</v>
@@ -12013,7 +12037,7 @@
         <v>2</v>
       </c>
       <c r="P102" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="Q102" t="s">
         <v>47</v>
@@ -12022,7 +12046,7 @@
         <v>1</v>
       </c>
       <c r="T102" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U102" s="41" t="b">
         <v>1</v>
@@ -12040,45 +12064,45 @@
         <v>70</v>
       </c>
       <c r="AB102" s="6" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="AD102" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
     </row>
-    <row r="103" spans="1:54" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:54" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="36" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E103" s="36" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="F103" s="36" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="G103" s="36" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H103" s="36" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J103" s="42" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="K103" s="36" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="L103" s="36" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M103" s="36" t="s">
         <v>127</v>
@@ -12090,16 +12114,16 @@
         <v>9</v>
       </c>
       <c r="P103" s="36" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="Q103" s="36" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="R103" s="36">
         <v>1</v>
       </c>
       <c r="T103" s="36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U103" s="41" t="b">
         <v>1</v>
@@ -12117,16 +12141,16 @@
         <v>70</v>
       </c>
       <c r="AA103" s="36" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="AB103" s="36" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="AC103" s="36" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AD103" s="36" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
@@ -12153,33 +12177,33 @@
       <c r="BA103" s="5"/>
       <c r="BB103" s="5"/>
     </row>
-    <row r="104" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="D104" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="E104" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="F104" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="G104" t="s">
         <v>39</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="J104" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="K104" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="L104" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M104" t="s">
         <v>30</v>
@@ -12191,7 +12215,7 @@
         <v>2</v>
       </c>
       <c r="P104" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="Q104" t="s">
         <v>47</v>
@@ -12200,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="T104" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U104" s="41" t="b">
         <v>1</v>
@@ -12218,24 +12242,24 @@
         <v>70</v>
       </c>
       <c r="AB104" t="s">
+        <v>837</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="105" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>844</v>
+      </c>
+      <c r="D105" t="s">
+        <v>845</v>
+      </c>
+      <c r="E105" t="s">
+        <v>846</v>
+      </c>
+      <c r="F105" t="s">
         <v>847</v>
-      </c>
-      <c r="AD104" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="105" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>854</v>
-      </c>
-      <c r="D105" t="s">
-        <v>855</v>
-      </c>
-      <c r="E105" t="s">
-        <v>856</v>
-      </c>
-      <c r="F105" t="s">
-        <v>857</v>
       </c>
       <c r="G105" t="s">
         <v>93</v>
@@ -12244,10 +12268,10 @@
         <v>94</v>
       </c>
       <c r="J105" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="K105" s="52" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="L105" t="s">
         <v>97</v>
@@ -12262,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="P105" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="Q105" t="s">
         <v>47</v>
@@ -12271,7 +12295,7 @@
         <v>1</v>
       </c>
       <c r="T105" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U105" s="41" t="b">
         <v>1</v>
@@ -12286,30 +12310,30 @@
         <v>141</v>
       </c>
       <c r="AB105" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="AD105" s="52" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
     </row>
-    <row r="106" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>134</v>
@@ -12318,10 +12342,10 @@
         <v>135</v>
       </c>
       <c r="J106" s="42" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>178</v>
@@ -12333,10 +12357,10 @@
         <v>45</v>
       </c>
       <c r="P106" s="5" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="T106" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U106" s="41" t="b">
         <v>1</v>
@@ -12354,36 +12378,36 @@
         <v>70</v>
       </c>
       <c r="AA106" s="5" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="AB106" s="5" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="AC106" s="5" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="AD106" s="5" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
-    <row r="107" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>134</v>
@@ -12393,10 +12417,10 @@
       </c>
       <c r="I107"/>
       <c r="J107" s="42" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="L107" s="5" t="s">
         <v>56</v>
@@ -12408,7 +12432,7 @@
         <v>45</v>
       </c>
       <c r="P107" s="5" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="T107" t="s">
         <v>33</v>
@@ -12432,36 +12456,36 @@
         <v>70</v>
       </c>
       <c r="AA107" s="22" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="AB107" s="22" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="AC107" s="5" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="AD107" s="5" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
-    <row r="108" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>134</v>
@@ -12471,10 +12495,10 @@
       </c>
       <c r="I108"/>
       <c r="J108" s="42" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="L108" s="5" t="s">
         <v>56</v>
@@ -12486,7 +12510,7 @@
         <v>45</v>
       </c>
       <c r="P108" s="5" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="T108" t="s">
         <v>33</v>
@@ -12510,51 +12534,51 @@
         <v>70</v>
       </c>
       <c r="AA108" s="22" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="AB108" s="22" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="AC108" s="5" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="AD108" s="5" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
-    <row r="109" spans="1:54" s="36" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:54" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="36" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D109" s="43" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="E109" s="38" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="F109" s="36" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="G109" s="36" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H109" s="37" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="J109" s="43" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="L109" s="36" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M109" s="36" t="s">
         <v>127</v>
@@ -12563,13 +12587,13 @@
         <v>34</v>
       </c>
       <c r="P109" s="36" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="Q109" s="36" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="T109" s="36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U109" s="41" t="b">
         <v>1</v>
@@ -12587,16 +12611,16 @@
         <v>70</v>
       </c>
       <c r="AA109" s="39" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="AB109" s="39" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="AC109" s="36" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="AD109" s="36" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
@@ -12623,39 +12647,39 @@
       <c r="BA109" s="5"/>
       <c r="BB109" s="5"/>
     </row>
-    <row r="110" spans="1:54" s="36" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:54" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="36" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D110" s="43" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="E110" s="38" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="F110" s="36" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G110" s="36" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H110" s="37" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="J110" s="43" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="L110" s="36" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M110" s="36" t="s">
         <v>127</v>
@@ -12664,13 +12688,13 @@
         <v>34</v>
       </c>
       <c r="P110" s="36" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="Q110" s="36" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="T110" s="36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U110" s="41" t="b">
         <v>1</v>
@@ -12688,16 +12712,16 @@
         <v>70</v>
       </c>
       <c r="AA110" s="39" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="AB110" s="39" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="AC110" s="36" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="AD110" s="36" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
@@ -12724,39 +12748,39 @@
       <c r="BA110" s="5"/>
       <c r="BB110" s="5"/>
     </row>
-    <row r="111" spans="1:54" s="36" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:54" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="36" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D111" s="43" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="E111" s="38" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F111" s="36" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G111" s="36" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H111" s="37" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="J111" s="43" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="L111" s="36" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M111" s="36" t="s">
         <v>127</v>
@@ -12765,13 +12789,13 @@
         <v>34</v>
       </c>
       <c r="P111" s="36" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="Q111" s="36" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="T111" s="36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U111" s="41" t="b">
         <v>1</v>
@@ -12789,16 +12813,16 @@
         <v>70</v>
       </c>
       <c r="AA111" s="39" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="AB111" s="39" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="AC111" s="36" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="AD111" s="36" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
@@ -12825,39 +12849,39 @@
       <c r="BA111" s="5"/>
       <c r="BB111" s="5"/>
     </row>
-    <row r="112" spans="1:54" s="36" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:54" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D112" s="43" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="E112" s="38" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="F112" s="36" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="G112" s="36" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H112" s="37" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="J112" s="44" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="L112" s="36" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M112" s="36" t="s">
         <v>127</v>
@@ -12866,13 +12890,13 @@
         <v>34</v>
       </c>
       <c r="P112" s="36" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="Q112" s="36" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="T112" s="36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U112" s="41" t="b">
         <v>1</v>
@@ -12890,16 +12914,16 @@
         <v>70</v>
       </c>
       <c r="AA112" s="39" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="AB112" s="39" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="AC112" s="36" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="AD112" s="36" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
@@ -12926,40 +12950,40 @@
       <c r="BA112" s="5"/>
       <c r="BB112" s="5"/>
     </row>
-    <row r="113" spans="1:54" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:54" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="69" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="B113" s="70" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="C113" s="71" t="str">
         <f>HYPERLINK(IF(AC113="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B113)))</f>
         <v>https://databank.worldbank.org/source/world-development-indicators?Series=SE.PRM.TCAQ.ZS</v>
       </c>
       <c r="D113" s="69" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="E113" s="69" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="F113" s="69" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="G113" s="60" t="s">
         <v>39</v>
       </c>
       <c r="H113" s="69" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J113" s="69" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="K113" s="69" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="L113" s="69" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M113" s="69" t="s">
         <v>127</v>
@@ -12971,16 +12995,16 @@
         <v>8</v>
       </c>
       <c r="P113" s="69" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="Q113" s="69" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="R113" s="69">
         <v>1</v>
       </c>
       <c r="T113" s="60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U113" s="63" t="b">
         <v>1</v>
@@ -12998,52 +13022,52 @@
         <v>70</v>
       </c>
       <c r="AA113" s="69" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="AB113" s="69" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="AC113" s="69" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="AD113" s="69" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
-    <row r="114" spans="1:54" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:54" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="69" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="B114" s="69" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="C114" s="71" t="str">
         <f>HYPERLINK(IF(AC114="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B114)))</f>
         <v>https://databank.worldbank.org/source/world-development-indicators?Series=SE.SEC.TCAQ.ZS</v>
       </c>
       <c r="D114" s="69" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="E114" s="69" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="F114" s="69" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="G114" s="60" t="s">
         <v>39</v>
       </c>
       <c r="H114" s="69" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J114" s="69" t="s">
+        <v>916</v>
+      </c>
+      <c r="K114" s="69" t="s">
         <v>926</v>
       </c>
-      <c r="K114" s="69" t="s">
-        <v>936</v>
-      </c>
       <c r="L114" s="69" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M114" s="69" t="s">
         <v>44</v>
@@ -13055,16 +13079,16 @@
         <v>4</v>
       </c>
       <c r="P114" s="69" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="Q114" s="69" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="R114" s="69">
         <v>1</v>
       </c>
       <c r="T114" s="60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U114" s="63" t="b">
         <v>1</v>
@@ -13082,37 +13106,37 @@
         <v>70</v>
       </c>
       <c r="AA114" s="69" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="AB114" s="69" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="AC114" s="69" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="AD114" s="69" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
     </row>
-    <row r="115" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="C115" s="17" t="str">
         <f>HYPERLINK(IF(AC115="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B115)))</f>
         <v>https://databank.worldbank.org/source/world-development-indicators?Series=SM.POP.REFG.OR</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>112</v>
@@ -13121,13 +13145,13 @@
         <v>113</v>
       </c>
       <c r="I115" s="49" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="K115" s="49" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>117</v>
@@ -13145,7 +13169,7 @@
         <v>47</v>
       </c>
       <c r="T115" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U115" s="41" t="b">
         <v>1</v>
@@ -13163,51 +13187,51 @@
         <v>119</v>
       </c>
       <c r="AA115" s="53" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="AB115" s="53" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="AC115" s="53" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="AD115" s="53" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
-    <row r="116" spans="1:54" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:54" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="36" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E116" s="36" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="F116" s="36" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="G116" s="36" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H116" s="36" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="J116" s="42" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="K116" s="36" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="L116" s="36" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M116" s="36" t="s">
         <v>127</v>
@@ -13219,7 +13243,7 @@
         <v>5</v>
       </c>
       <c r="P116" s="36" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="Q116" s="36" t="s">
         <v>58</v>
@@ -13228,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="T116" s="36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U116" s="41" t="b">
         <v>1</v>
@@ -13246,16 +13270,16 @@
         <v>70</v>
       </c>
       <c r="AA116" s="36" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="AB116" s="36" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="AC116" s="36" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="AD116" s="36" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
@@ -13282,37 +13306,37 @@
       <c r="BA116" s="5"/>
       <c r="BB116" s="5"/>
     </row>
-    <row r="117" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="C117" s="12" t="str">
         <f>HYPERLINK(IF(AC117="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B117)))</f>
         <v/>
       </c>
       <c r="D117" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="E117" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="F117" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="G117" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="H117" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="J117" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="K117" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="L117" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="M117" t="s">
         <v>44</v>
@@ -13324,16 +13348,16 @@
         <v>3</v>
       </c>
       <c r="P117" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="Q117" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="R117">
         <v>1</v>
       </c>
       <c r="T117" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U117" s="41" t="b">
         <v>1</v>
@@ -13351,24 +13375,24 @@
         <v>70</v>
       </c>
       <c r="AB117" t="s">
+        <v>947</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="118" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>954</v>
+      </c>
+      <c r="D118" t="s">
+        <v>955</v>
+      </c>
+      <c r="E118" t="s">
+        <v>956</v>
+      </c>
+      <c r="F118" t="s">
         <v>957</v>
-      </c>
-      <c r="AD117" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="118" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>964</v>
-      </c>
-      <c r="D118" t="s">
-        <v>965</v>
-      </c>
-      <c r="E118" t="s">
-        <v>966</v>
-      </c>
-      <c r="F118" t="s">
-        <v>967</v>
       </c>
       <c r="G118" t="s">
         <v>134</v>
@@ -13377,13 +13401,13 @@
         <v>135</v>
       </c>
       <c r="I118" s="29" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="J118" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="K118" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="L118" t="s">
         <v>56</v>
@@ -13395,7 +13419,7 @@
         <v>45</v>
       </c>
       <c r="P118" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="T118" t="s">
         <v>33</v>
@@ -13419,24 +13443,24 @@
         <v>70</v>
       </c>
       <c r="AB118" s="29" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="AD118" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
     </row>
-    <row r="119" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="D119" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="E119" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="F119" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="G119" t="s">
         <v>134</v>
@@ -13445,10 +13469,10 @@
         <v>135</v>
       </c>
       <c r="J119" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="K119" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="L119" t="s">
         <v>56</v>
@@ -13463,7 +13487,7 @@
         <v>3</v>
       </c>
       <c r="P119" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="R119">
         <v>1</v>
@@ -13490,24 +13514,24 @@
         <v>70</v>
       </c>
       <c r="AB119" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="AD119" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
     </row>
-    <row r="120" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="D120" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="E120" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="F120" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="G120" t="s">
         <v>134</v>
@@ -13516,10 +13540,10 @@
         <v>135</v>
       </c>
       <c r="J120" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="K120" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="L120" t="s">
         <v>56</v>
@@ -13534,7 +13558,7 @@
         <v>2</v>
       </c>
       <c r="P120" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="R120">
         <v>1</v>
@@ -13561,24 +13585,24 @@
         <v>70</v>
       </c>
       <c r="AB120" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="AD120" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
     </row>
-    <row r="121" spans="1:54" s="60" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:54" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="60" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="D121" s="60" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="E121" s="61" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="F121" s="60" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="G121" s="60" t="s">
         <v>134</v>
@@ -13587,13 +13611,13 @@
         <v>135</v>
       </c>
       <c r="J121" s="60" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="K121" s="60" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="L121" s="62" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="M121" s="60" t="s">
         <v>139</v>
@@ -13605,13 +13629,13 @@
         <v>14</v>
       </c>
       <c r="P121" s="60" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="R121" s="60">
         <v>0</v>
       </c>
       <c r="T121" s="60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U121" s="63" t="b">
         <v>1</v>
@@ -13626,45 +13650,45 @@
         <v>141</v>
       </c>
       <c r="Z121" s="60" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="AB121" s="60" t="s">
+        <v>975</v>
+      </c>
+      <c r="AD121" s="60" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="122" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="D122" s="42" t="s">
+        <v>984</v>
+      </c>
+      <c r="E122" s="18" t="s">
         <v>985</v>
       </c>
-      <c r="AD121" s="60" t="s">
+      <c r="F122" s="5" t="s">
         <v>986</v>
-      </c>
-    </row>
-    <row r="122" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>993</v>
-      </c>
-      <c r="D122" s="42" t="s">
-        <v>994</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>996</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>134</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="J122" s="42" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="L122" s="20" t="s">
         <v>194</v>
@@ -13676,10 +13700,10 @@
         <v>45</v>
       </c>
       <c r="P122" s="5" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="T122" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U122" s="41" t="b">
         <v>1</v>
@@ -13697,51 +13721,51 @@
         <v>70</v>
       </c>
       <c r="AA122" s="22" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AB122" s="22" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC122" s="5" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="AD122" s="5" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
     </row>
-    <row r="123" spans="1:54" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:54" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="36" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="E123" s="36" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="F123" s="36" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="G123" s="36" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H123" s="36" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J123" s="42" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="K123" s="36" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="L123" s="36" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="M123" s="36" t="s">
         <v>127</v>
@@ -13750,13 +13774,13 @@
         <v>34</v>
       </c>
       <c r="P123" s="36" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q123" s="36" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="T123" s="36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U123" s="41" t="b">
         <v>1</v>
@@ -13774,16 +13798,16 @@
         <v>70</v>
       </c>
       <c r="AA123" s="22" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="AB123" s="22" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="AC123" s="36" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="AD123" s="36" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="AE123" s="5"/>
       <c r="AF123" s="5"/>
@@ -13810,39 +13834,39 @@
       <c r="BA123" s="5"/>
       <c r="BB123" s="5"/>
     </row>
-    <row r="124" spans="1:54" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:54" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="36" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="E124" s="36" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="F124" s="36" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="G124" s="36" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H124" s="36" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J124" s="42" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="K124" s="36" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="L124" s="36" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="M124" s="36" t="s">
         <v>44</v>
@@ -13851,13 +13875,13 @@
         <v>34</v>
       </c>
       <c r="P124" s="36" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="Q124" s="36" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="T124" s="36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U124" s="41" t="b">
         <v>1</v>
@@ -13875,16 +13899,16 @@
         <v>70</v>
       </c>
       <c r="AA124" s="22" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="AB124" s="22" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="AC124" s="36" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="AD124" s="36" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="AE124" s="5"/>
       <c r="AF124" s="5"/>
@@ -13911,24 +13935,24 @@
       <c r="BA124" s="5"/>
       <c r="BB124" s="5"/>
     </row>
-    <row r="125" spans="1:54" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:54" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="69" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="B125" s="69" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="C125" s="71" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="D125" s="69" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="E125" s="73" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="F125" s="69" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G125" s="69" t="s">
         <v>134</v>
@@ -13937,7 +13961,7 @@
         <v>135</v>
       </c>
       <c r="J125" s="69" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="L125" s="77" t="s">
         <v>194</v>
@@ -13949,10 +13973,10 @@
         <v>45</v>
       </c>
       <c r="P125" s="69" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="T125" s="60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U125" s="63" t="b">
         <v>1</v>
@@ -13967,51 +13991,51 @@
         <v>141</v>
       </c>
       <c r="Z125" s="69" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="AA125" s="69" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="AB125" s="69" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="AC125" s="69" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="AD125" s="69" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
     </row>
-    <row r="126" spans="1:54" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:54" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="69" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="B126" s="69" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="C126" s="65" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D126" s="69" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="E126" s="69" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="F126" s="69" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="G126" s="69" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H126" s="71" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J126" s="69" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="L126" s="69" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M126" s="69" t="s">
         <v>44</v>
@@ -14023,16 +14047,16 @@
         <v>2</v>
       </c>
       <c r="P126" s="69" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="Q126" s="69" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="R126" s="69">
         <v>1</v>
       </c>
       <c r="T126" s="69" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U126" s="63" t="b">
         <v>1</v>
@@ -14050,42 +14074,42 @@
         <v>70</v>
       </c>
       <c r="AA126" s="69" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="AB126" s="69" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="AC126" s="69" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="AD126" s="69" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
     </row>
-    <row r="127" spans="1:54" s="60" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:54" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="60" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D127" s="60" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="E127" s="60" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="F127" s="60" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="G127" s="60" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="H127" s="65" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="J127" s="60" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="K127" s="60" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="L127" s="60" t="s">
         <v>97</v>
@@ -14100,16 +14124,16 @@
         <v>0</v>
       </c>
       <c r="P127" s="60" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="Q127" s="60" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="R127" s="60">
         <v>1</v>
       </c>
       <c r="T127" s="60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U127" s="63" t="b">
         <v>1</v>
@@ -14124,30 +14148,30 @@
         <v>141</v>
       </c>
       <c r="AB127" s="60" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="AD127" s="60" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
-    <row r="128" spans="1:54" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>134</v>
@@ -14156,7 +14180,7 @@
         <v>135</v>
       </c>
       <c r="J128" s="42" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="L128" s="5" t="s">
         <v>178</v>
@@ -14168,10 +14192,10 @@
         <v>45</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="T128" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U128" s="41" t="b">
         <v>1</v>
@@ -14189,36 +14213,36 @@
         <v>70</v>
       </c>
       <c r="AA128" s="22" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="AB128" s="22" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="AC128" s="5" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="AD128" s="5" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
     </row>
-    <row r="129" spans="1:54" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:54" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="69" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="B129" s="69" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="C129" s="65" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="D129" s="69" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="E129" s="73" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="F129" s="69" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>134</v>
@@ -14227,7 +14251,7 @@
         <v>135</v>
       </c>
       <c r="J129" s="69" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="L129" s="69" t="s">
         <v>178</v>
@@ -14239,10 +14263,10 @@
         <v>45</v>
       </c>
       <c r="P129" s="69" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="T129" s="60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U129" s="63" t="b">
         <v>1</v>
@@ -14260,30 +14284,30 @@
         <v>70</v>
       </c>
       <c r="AA129" s="69" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="AB129" s="69" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="AC129" s="69" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="AD129" s="69" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
     </row>
-    <row r="130" spans="1:54" s="60" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:54" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="60" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="D130" s="60" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="E130" s="60" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="F130" s="60" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="G130" s="60" t="s">
         <v>63</v>
@@ -14295,7 +14319,7 @@
         <v>65</v>
       </c>
       <c r="K130" s="60" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="L130" s="60" t="s">
         <v>67</v>
@@ -14307,13 +14331,13 @@
         <v>68</v>
       </c>
       <c r="P130" s="60" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="Q130" s="60" t="s">
         <v>47</v>
       </c>
       <c r="T130" s="60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U130" s="63" t="b">
         <v>1</v>
@@ -14331,24 +14355,24 @@
         <v>70</v>
       </c>
       <c r="AB130" s="60" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="AD130" s="60" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
-    <row r="131" spans="1:54" s="60" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:54" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="60" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="D131" s="60" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="E131" s="60" t="s">
         <v>73</v>
       </c>
       <c r="F131" s="60" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="G131" s="60" t="s">
         <v>63</v>
@@ -14357,10 +14381,10 @@
         <v>75</v>
       </c>
       <c r="J131" s="60" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="K131" s="60" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="L131" s="60" t="s">
         <v>78</v>
@@ -14372,13 +14396,13 @@
         <v>68</v>
       </c>
       <c r="P131" s="60" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="Q131" s="60" t="s">
         <v>47</v>
       </c>
       <c r="T131" s="60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U131" s="63" t="b">
         <v>1</v>
@@ -14396,24 +14420,24 @@
         <v>70</v>
       </c>
       <c r="AB131" s="60" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="AD131" s="60" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
     </row>
-    <row r="132" spans="1:54" s="60" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:54" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="60" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="D132" s="60" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="E132" s="64" t="s">
         <v>82</v>
       </c>
       <c r="F132" s="60" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="G132" s="60" t="s">
         <v>63</v>
@@ -14425,7 +14449,7 @@
         <v>85</v>
       </c>
       <c r="K132" s="60" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="L132" s="60" t="s">
         <v>87</v>
@@ -14440,7 +14464,7 @@
         <v>4</v>
       </c>
       <c r="P132" s="60" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="Q132" s="60" t="s">
         <v>47</v>
@@ -14449,7 +14473,7 @@
         <v>0</v>
       </c>
       <c r="T132" s="60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U132" s="63" t="b">
         <v>1</v>
@@ -14467,43 +14491,43 @@
         <v>70</v>
       </c>
       <c r="AB132" s="60" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="AD132" s="60" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
     </row>
-    <row r="133" spans="1:54" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:54" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="69" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="B133" s="69" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="C133" s="71" t="str">
         <f>HYPERLINK(IF(AC133="","",_xlfn.CONCAT("https://databank.worldbank.org/source/world-development-indicators?Series=",B133)))</f>
         <v>https://databank.worldbank.org/source/world-development-indicators?Series=SE.ADT.1524.LT.ZS</v>
       </c>
       <c r="D133" s="76" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="E133" s="69" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="F133" s="69" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="G133" s="69" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H133" s="71" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="J133" s="69" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="L133" s="69" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="M133" s="69" t="s">
         <v>44</v>
@@ -14515,16 +14539,16 @@
         <v>1</v>
       </c>
       <c r="P133" s="69" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="Q133" s="69" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="R133" s="69">
         <v>1</v>
       </c>
       <c r="T133" s="60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U133" s="63" t="b">
         <v>1</v>
@@ -14542,30 +14566,30 @@
         <v>70</v>
       </c>
       <c r="AA133" s="69" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="AB133" s="69" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="AC133" s="69" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="AD133" s="69" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
     </row>
-    <row r="134" spans="1:54" s="60" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:54" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="60" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="D134" s="60" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="E134" s="61" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="F134" s="60" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="G134" s="60" t="s">
         <v>134</v>
@@ -14574,10 +14598,10 @@
         <v>135</v>
       </c>
       <c r="J134" s="60" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="K134" s="60" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="L134" s="62" t="s">
         <v>194</v>
@@ -14592,13 +14616,13 @@
         <v>2</v>
       </c>
       <c r="P134" s="60" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="R134" s="60">
         <v>0</v>
       </c>
       <c r="T134" s="60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U134" s="63" t="b">
         <v>1</v>
@@ -14613,42 +14637,42 @@
         <v>141</v>
       </c>
       <c r="Z134" s="60" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="AB134" s="60" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="AD134" s="60" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
     </row>
-    <row r="135" spans="1:54" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:54" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="69" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="B135" s="69" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="C135" s="71" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="D135" s="69" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="E135" s="73" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="F135" s="69" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="G135" s="69" t="s">
         <v>63</v>
       </c>
       <c r="H135" s="71" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="J135" s="69" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="L135" s="69" t="s">
         <v>78</v>
@@ -14663,7 +14687,7 @@
         <v>1</v>
       </c>
       <c r="P135" s="69" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="Q135" s="69" t="s">
         <v>47</v>
@@ -14672,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="T135" s="60" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U135" s="63" t="b">
         <v>1</v>
@@ -14690,32 +14714,32 @@
         <v>70</v>
       </c>
       <c r="AA135" s="69" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="AB135" s="69" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="AC135" s="69" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="AD135" s="69" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
     </row>
-    <row r="136" spans="1:54" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:54" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="31" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="B136" s="32"/>
       <c r="C136" s="33"/>
       <c r="D136" s="31" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="E136" s="34" t="s">
         <v>101</v>
       </c>
       <c r="F136" s="31" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="G136" s="31" t="s">
         <v>63</v>
@@ -14727,7 +14751,7 @@
         <v>104</v>
       </c>
       <c r="K136" s="31" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="L136" s="31" t="s">
         <v>78</v>
@@ -14742,7 +14766,7 @@
         <v>2</v>
       </c>
       <c r="P136" s="31" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="Q136" s="31" t="s">
         <v>47</v>
@@ -14751,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="T136" s="31" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U136" s="41" t="b">
         <v>1</v>
@@ -14769,16 +14793,16 @@
         <v>70</v>
       </c>
       <c r="AA136" s="32" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="AB136" s="32" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="AC136" s="32" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="AD136" s="31" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="AE136"/>
       <c r="AF136"/>
@@ -14805,9 +14829,9 @@
       <c r="BA136"/>
       <c r="BB136"/>
     </row>
-    <row r="137" spans="1:54" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:54" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:54" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:54" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:54" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="1:54" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:V136" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
@@ -14958,40 +14982,40 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="46" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
